--- a/xlsxwriter/test/comparison/xlsx_files/types07.xlsx
+++ b/xlsxwriter/test/comparison/xlsx_files/types07.xlsx
@@ -360,7 +360,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="e">
-        <f>1/0</f>
+        <f>-1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
